--- a/Bibsam_tidskriftslistor/scifree_data_copernicus.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_copernicus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5EDB8D5-E79B-4A8C-8333-7633C4155385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B5EDB8D5-E79B-4A8C-8333-7633C4155385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0878FB1C-0176-4171-BCF2-A9DD0EC8D4E9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D53871AA-E196-4792-8567-EE00A5FA966F}"/>
   </bookViews>
@@ -33,6 +33,365 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="118">
+  <si>
+    <t>Copernicus</t>
+  </si>
+  <si>
+    <t>1680-7359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advances in Geosciences </t>
+  </si>
+  <si>
+    <t>https://www.advances-in-geosciences.net/</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>CC-BY</t>
+  </si>
+  <si>
+    <t>1684-9973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advances in Radio Science </t>
+  </si>
+  <si>
+    <t>https://www.advances-in-radio-science.net/</t>
+  </si>
+  <si>
+    <t>1992-0636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advances in Science and Research </t>
+  </si>
+  <si>
+    <t>https://www.advances-in-science-and-research.net/</t>
+  </si>
+  <si>
+    <t>1432-0576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annales Geophysicae </t>
+  </si>
+  <si>
+    <t>https://www.annales-geophysicae.net/</t>
+  </si>
+  <si>
+    <t>2363-9822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archives Animal Breeding </t>
+  </si>
+  <si>
+    <t>https://archives-animal-breeding.net/</t>
+  </si>
+  <si>
+    <t>1680-7324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmospheric Chemistry and Physics </t>
+  </si>
+  <si>
+    <t>https://www.atmospheric-chemistry-and-physics.net/</t>
+  </si>
+  <si>
+    <t>1867-8548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmospheric Measurement Techniques </t>
+  </si>
+  <si>
+    <t>https://www.atmospheric-measurement-techniques.net/</t>
+  </si>
+  <si>
+    <t>1726-4189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biogeosciences </t>
+  </si>
+  <si>
+    <t>https://www.biogeosciences.net/</t>
+  </si>
+  <si>
+    <t>1814-9332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate of the Past </t>
+  </si>
+  <si>
+    <t>https://www.climate-of-the-past.net/</t>
+  </si>
+  <si>
+    <t>2625-8137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEUQUA Special Publications </t>
+  </si>
+  <si>
+    <t>https://www.deuqua-special-publications.net/</t>
+  </si>
+  <si>
+    <t>2199-9090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E&amp;G Quaternary Science Journal </t>
+  </si>
+  <si>
+    <t>https://www.eg-quaternary-science-journal.net/</t>
+  </si>
+  <si>
+    <t>2196-632X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth Surface Dynamics </t>
+  </si>
+  <si>
+    <t>https://www.earth-surface-dynamics.net/</t>
+  </si>
+  <si>
+    <t>2190-4987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth System Dynamics </t>
+  </si>
+  <si>
+    <t>https://www.earth-system-dynamics.net/</t>
+  </si>
+  <si>
+    <t>1866-3516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth System Science Data </t>
+  </si>
+  <si>
+    <t>https://www.earth-system-science-data.net/</t>
+  </si>
+  <si>
+    <t>1617-4011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Journal of Mineralogy </t>
+  </si>
+  <si>
+    <t>https://www.european-journal-of-mineralogy.net/</t>
+  </si>
+  <si>
+    <t>2628-3719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geochronology </t>
+  </si>
+  <si>
+    <t>https://www.geochronology.net/</t>
+  </si>
+  <si>
+    <t>2569-7110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geoscience Communication </t>
+  </si>
+  <si>
+    <t>https://www.geoscience-communication.net/</t>
+  </si>
+  <si>
+    <t>2193-0864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geoscientific Instrumentation, Methods and Data Systems </t>
+  </si>
+  <si>
+    <t>https://www.geoscientific-instrumentation-methods-and-data-systems.net/</t>
+  </si>
+  <si>
+    <t>1991-9603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geoscientific Model Development </t>
+  </si>
+  <si>
+    <t>https://www.geoscientific-model-development.net/</t>
+  </si>
+  <si>
+    <t>1607-7938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrology and Earth System Sciences </t>
+  </si>
+  <si>
+    <t>https://www.hydrology-and-earth-system-sciences.net/</t>
+  </si>
+  <si>
+    <t>2206-3552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Bone and Joint Infection </t>
+  </si>
+  <si>
+    <t>https://www.journal-of-bone-and-joint-infection.net/</t>
+  </si>
+  <si>
+    <t>2041-4978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Micropalaeontology </t>
+  </si>
+  <si>
+    <t>https://www.journal-of-micropalaeontology.net/</t>
+  </si>
+  <si>
+    <t>2194-878X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Sensors and Sensor Systems </t>
+  </si>
+  <si>
+    <t>https://www.journal-of-sensors-and-sensor-systems.net/</t>
+  </si>
+  <si>
+    <t>2699-0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetic Resonance </t>
+  </si>
+  <si>
+    <t>https://www.magnetic-resonance-ampere.net/</t>
+  </si>
+  <si>
+    <t>2191-916X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanical Sciences </t>
+  </si>
+  <si>
+    <t>https://www.mechanical-sciences.net/</t>
+  </si>
+  <si>
+    <t>1684-9981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Hazards and Earth System Sciences </t>
+  </si>
+  <si>
+    <t>https://www.natural-hazards-and-earth-system-sciences.net/</t>
+  </si>
+  <si>
+    <t>1607-7946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonlinear Processes in Geophysics </t>
+  </si>
+  <si>
+    <t>https://www.nonlinear-processes-in-geophysics.net/</t>
+  </si>
+  <si>
+    <t>1812-0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean Science </t>
+  </si>
+  <si>
+    <t>https://www.ocean-science.net/</t>
+  </si>
+  <si>
+    <t>2363-4715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primate Biology </t>
+  </si>
+  <si>
+    <t>https://www.primate-biology.net/</t>
+  </si>
+  <si>
+    <t>2199-899X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceedings of the International Association of Hydrological Sciences </t>
+  </si>
+  <si>
+    <t>https://www.proceedings-iahs.net/</t>
+  </si>
+  <si>
+    <t>2199-398X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOIL </t>
+  </si>
+  <si>
+    <t>https://www.soil-journal.net/</t>
+  </si>
+  <si>
+    <t>1869-9529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid Earth </t>
+  </si>
+  <si>
+    <t>https://www.solid-earth.net/</t>
+  </si>
+  <si>
+    <t>2752-0706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of the Planet </t>
+  </si>
+  <si>
+    <t>https://www.state-of-the-planet.net/</t>
+  </si>
+  <si>
+    <t>1994-0424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cryosphere </t>
+  </si>
+  <si>
+    <t>https://www.the-cryosphere.net/</t>
+  </si>
+  <si>
+    <t>2698-4016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weather and Climate Dynamics </t>
+  </si>
+  <si>
+    <t>https://www.weather-climate-dynamics.net/</t>
+  </si>
+  <si>
+    <t>2366-7451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind Energy Sciences </t>
+  </si>
+  <si>
+    <t>https://www.wind-energy-science.net/</t>
+  </si>
+  <si>
+    <t>Imprint</t>
+  </si>
+  <si>
+    <t>ISSN Electronic</t>
+  </si>
+  <si>
+    <t>ISSN Print</t>
+  </si>
+  <si>
+    <t>Journal Name</t>
+  </si>
+  <si>
+    <t>JournalURL</t>
+  </si>
+  <si>
+    <t>Publishing model</t>
+  </si>
+  <si>
+    <t>CC License options</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83,6 +442,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0FCFBC8-E871-4B88-9D3F-3E41CE5D11B2}" name="Table1" displayName="Table1" ref="A1:G37" totalsRowShown="0">
+  <autoFilter ref="A1:G37" xr:uid="{F0FCFBC8-E871-4B88-9D3F-3E41CE5D11B2}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BDA91FB0-7858-4786-BD36-3CB846C9D76A}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{9FDED942-1633-4391-AE0F-63BE023CDC54}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{56ED5E3E-0425-494E-AE33-7481AF3A8EFC}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{014DBAD1-0BAD-49F3-877A-9370435DE682}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{384410BC-6217-4029-BAB5-356AEEB3A605}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{4386F922-C4CD-41CC-A3D9-31FE15372F2C}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{92F68997-E4F1-4830-9B74-E70F8327B1E6}" name="CC License options"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +777,770 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91E3EFA-FC6D-45AC-8B3C-4D7F357C81B6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>